--- a/dir_Departamentos.xlsx
+++ b/dir_Departamentos.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{17FC44BE-BC92-4ED7-B4F9-318E87D22F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E7CF4-4C52-40C0-8A1D-B62B81FD73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA7D7B0A-3537-46F6-BBB4-0CE3EBE110E6}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-03-29-25-081138" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -175,7 +188,7 @@
     <t>Valle Del Cauca</t>
   </si>
   <si>
-    <t>Archipiélago de San Andrés, Providencia y Santa Catalin</t>
+    <t>Archipiélago de San Andrés, Providencia y Santa Catalina</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1035,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/dir_Departamentos.xlsx
+++ b/dir_Departamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E7CF4-4C52-40C0-8A1D-B62B81FD73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A02E9F0-B2BC-40B5-97B7-844448B0868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA7D7B0A-3537-46F6-BBB4-0CE3EBE110E6}"/>
   </bookViews>
@@ -113,12 +113,6 @@
     <t>88</t>
   </si>
   <si>
-    <t>COD_DEPTO</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
     <t>Atlántico</t>
   </si>
   <si>
@@ -189,6 +183,12 @@
   </si>
   <si>
     <t>Archipiélago de San Andrés, Providencia y Santa Catalina</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1034,9 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB401C7-738A-4C93-BED4-A996A6763548}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1045,11 +1046,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1081,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1153,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1161,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1185,7 +1186,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1201,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1225,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1241,7 +1242,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1249,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
